--- a/VisualLab/complete graphs of results.xlsx
+++ b/VisualLab/complete graphs of results.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="19">
   <si>
     <t>color</t>
   </si>
@@ -75,6 +75,12 @@
   </si>
   <si>
     <t>error</t>
+  </si>
+  <si>
+    <t>image</t>
+  </si>
+  <si>
+    <t>no image</t>
   </si>
 </sst>
 </file>
@@ -282,7 +288,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -311,28 +317,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -353,7 +338,34 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -365,14 +377,17 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -477,7 +492,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -613,7 +627,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -716,7 +729,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2722,6 +2734,626 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="402039064"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$179</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>short</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="l"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$D$173:$D$174</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="2"/>
+                  <c:pt idx="0">
+                    <c:v>0.63700000000000001</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.92</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$D$173:$D$174</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="2"/>
+                  <c:pt idx="0">
+                    <c:v>0.63700000000000001</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.92</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$178:$C$178</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>image</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>no image</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$179:$C$179</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>6.3330000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.7329999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C8EF-470C-839F-E4A4405D806D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$180</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>long</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="l"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$D$175:$D$176</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="2"/>
+                  <c:pt idx="0">
+                    <c:v>0.57299999999999995</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.52700000000000002</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$D$175:$D$176</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="2"/>
+                  <c:pt idx="0">
+                    <c:v>0.57299999999999995</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.52700000000000002</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$178:$C$178</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>image</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>no image</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$180:$C$180</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>7.867</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C8EF-470C-839F-E4A4405D806D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="l"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="291049512"/>
+        <c:axId val="291048200"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="291049512"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="291048200"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="291048200"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="10"/>
+          <c:min val="1.3"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Mean number of</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> correct image recalls</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="291049512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7731,6 +8363,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -9084,6 +9756,522 @@
 </file>
 
 <file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -14089,6 +15277,36 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>170</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>182</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -14355,10 +15573,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G168"/>
+  <dimension ref="A1:G180"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="F130" sqref="F130"/>
+    <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
+      <selection activeCell="H181" sqref="H181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14367,24 +15585,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="16"/>
+      <c r="E1" s="24"/>
     </row>
     <row r="2" spans="1:5" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="11"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="15"/>
+      <c r="A2" s="31"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="22"/>
       <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
@@ -14457,24 +15675,24 @@
       </c>
     </row>
     <row r="20" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="C20" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D20" s="17" t="s">
+      <c r="D20" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="E20" s="16"/>
+      <c r="E20" s="24"/>
     </row>
     <row r="21" spans="1:5" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="11"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="15"/>
+      <c r="A21" s="31"/>
+      <c r="B21" s="33"/>
+      <c r="C21" s="22"/>
       <c r="D21" s="1" t="s">
         <v>4</v>
       </c>
@@ -14547,24 +15765,24 @@
       </c>
     </row>
     <row r="33" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="10" t="s">
+      <c r="A33" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="B33" s="12" t="s">
+      <c r="B33" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="C33" s="14" t="s">
+      <c r="C33" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D33" s="17" t="s">
+      <c r="D33" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="E33" s="16"/>
+      <c r="E33" s="24"/>
     </row>
     <row r="34" spans="1:6" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="11"/>
-      <c r="B34" s="13"/>
-      <c r="C34" s="15"/>
+      <c r="A34" s="31"/>
+      <c r="B34" s="33"/>
+      <c r="C34" s="22"/>
       <c r="D34" s="1" t="s">
         <v>4</v>
       </c>
@@ -14637,28 +15855,28 @@
       </c>
     </row>
     <row r="47" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="10" t="s">
+      <c r="A47" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B47" s="10" t="s">
+      <c r="B47" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="C47" s="12" t="s">
+      <c r="C47" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="D47" s="14" t="s">
+      <c r="D47" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="E47" s="17" t="s">
+      <c r="E47" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="F47" s="16"/>
+      <c r="F47" s="24"/>
     </row>
     <row r="48" spans="1:6" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="11"/>
-      <c r="B48" s="11"/>
-      <c r="C48" s="13"/>
-      <c r="D48" s="15"/>
+      <c r="A48" s="31"/>
+      <c r="B48" s="31"/>
+      <c r="C48" s="33"/>
+      <c r="D48" s="22"/>
       <c r="E48" s="1" t="s">
         <v>4</v>
       </c>
@@ -14667,7 +15885,7 @@
       </c>
     </row>
     <row r="49" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="24">
+      <c r="A49" s="25">
         <v>1</v>
       </c>
       <c r="B49" s="3">
@@ -14687,45 +15905,45 @@
       </c>
     </row>
     <row r="50" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="25"/>
-      <c r="B50" s="18">
+      <c r="A50" s="27"/>
+      <c r="B50" s="11">
         <v>2</v>
       </c>
-      <c r="C50" s="19">
+      <c r="C50" s="12">
         <v>2.133</v>
       </c>
-      <c r="D50" s="19">
+      <c r="D50" s="12">
         <v>0.22600000000000001</v>
       </c>
-      <c r="E50" s="19">
+      <c r="E50" s="12">
         <v>1.6479999999999999</v>
       </c>
-      <c r="F50" s="20">
+      <c r="F50" s="13">
         <v>2.6179999999999999</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="26">
+      <c r="A51" s="28">
         <v>2</v>
       </c>
-      <c r="B51" s="21">
+      <c r="B51" s="14">
         <v>1</v>
       </c>
-      <c r="C51" s="22">
+      <c r="C51" s="15">
         <v>2</v>
       </c>
-      <c r="D51" s="22">
+      <c r="D51" s="15">
         <v>0.24399999999999999</v>
       </c>
-      <c r="E51" s="22">
+      <c r="E51" s="15">
         <v>1.4770000000000001</v>
       </c>
-      <c r="F51" s="23">
+      <c r="F51" s="16">
         <v>2.5230000000000001</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="27"/>
+      <c r="A52" s="29"/>
       <c r="B52" s="7">
         <v>2</v>
       </c>
@@ -14754,10 +15972,10 @@
       <c r="B55" t="s">
         <v>7</v>
       </c>
-      <c r="C55" s="28">
+      <c r="C55" s="18">
         <v>1.9330000000000001</v>
       </c>
-      <c r="D55" s="28">
+      <c r="D55" s="18">
         <v>2</v>
       </c>
     </row>
@@ -14765,21 +15983,21 @@
       <c r="B56" t="s">
         <v>8</v>
       </c>
-      <c r="C56" s="28">
+      <c r="C56" s="18">
         <v>2.133</v>
       </c>
-      <c r="D56" s="28">
+      <c r="D56" s="18">
         <v>1.9</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C57" s="28"/>
+      <c r="C57" s="18"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>7</v>
       </c>
-      <c r="C58" s="28" t="s">
+      <c r="C58" s="18" t="s">
         <v>8</v>
       </c>
     </row>
@@ -14801,33 +16019,33 @@
       <c r="B60">
         <v>2</v>
       </c>
-      <c r="C60" s="28">
+      <c r="C60" s="18">
         <v>1.9</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="10" t="s">
+      <c r="A64" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B64" s="10" t="s">
+      <c r="B64" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="C64" s="12" t="s">
+      <c r="C64" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="D64" s="14" t="s">
+      <c r="D64" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="E64" s="17" t="s">
+      <c r="E64" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="F64" s="16"/>
+      <c r="F64" s="24"/>
     </row>
     <row r="65" spans="1:6" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="11"/>
-      <c r="B65" s="11"/>
-      <c r="C65" s="13"/>
-      <c r="D65" s="15"/>
+      <c r="A65" s="31"/>
+      <c r="B65" s="31"/>
+      <c r="C65" s="33"/>
+      <c r="D65" s="22"/>
       <c r="E65" s="1" t="s">
         <v>4</v>
       </c>
@@ -14836,7 +16054,7 @@
       </c>
     </row>
     <row r="66" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="24">
+      <c r="A66" s="25">
         <v>1</v>
       </c>
       <c r="B66" s="3">
@@ -14856,45 +16074,45 @@
       </c>
     </row>
     <row r="67" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="25"/>
-      <c r="B67" s="18">
+      <c r="A67" s="27"/>
+      <c r="B67" s="11">
         <v>2</v>
       </c>
-      <c r="C67" s="19">
+      <c r="C67" s="12">
         <v>2.367</v>
       </c>
-      <c r="D67" s="19">
+      <c r="D67" s="12">
         <v>0.23100000000000001</v>
       </c>
-      <c r="E67" s="19">
+      <c r="E67" s="12">
         <v>1.871</v>
       </c>
-      <c r="F67" s="20">
+      <c r="F67" s="13">
         <v>2.863</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="26">
+      <c r="A68" s="28">
         <v>2</v>
       </c>
-      <c r="B68" s="21">
+      <c r="B68" s="14">
         <v>1</v>
       </c>
-      <c r="C68" s="22">
+      <c r="C68" s="15">
         <v>1.667</v>
       </c>
-      <c r="D68" s="22">
+      <c r="D68" s="15">
         <v>0.19900000000000001</v>
       </c>
-      <c r="E68" s="22">
+      <c r="E68" s="15">
         <v>1.2390000000000001</v>
       </c>
-      <c r="F68" s="23">
+      <c r="F68" s="16">
         <v>2.0939999999999999</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="27"/>
+      <c r="A69" s="29"/>
       <c r="B69" s="7">
         <v>2</v>
       </c>
@@ -14942,28 +16160,28 @@
       </c>
     </row>
     <row r="78" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="10" t="s">
+      <c r="A78" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="B78" s="10" t="s">
+      <c r="B78" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="C78" s="12" t="s">
+      <c r="C78" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="D78" s="14" t="s">
+      <c r="D78" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="E78" s="17" t="s">
+      <c r="E78" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="F78" s="16"/>
+      <c r="F78" s="24"/>
     </row>
     <row r="79" spans="1:6" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="11"/>
-      <c r="B79" s="11"/>
-      <c r="C79" s="13"/>
-      <c r="D79" s="15"/>
+      <c r="A79" s="31"/>
+      <c r="B79" s="31"/>
+      <c r="C79" s="33"/>
+      <c r="D79" s="22"/>
       <c r="E79" s="1" t="s">
         <v>4</v>
       </c>
@@ -14972,7 +16190,7 @@
       </c>
     </row>
     <row r="80" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="24">
+      <c r="A80" s="25">
         <v>1</v>
       </c>
       <c r="B80" s="3">
@@ -14992,45 +16210,45 @@
       </c>
     </row>
     <row r="81" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="25"/>
-      <c r="B81" s="18">
+      <c r="A81" s="27"/>
+      <c r="B81" s="11">
         <v>2</v>
       </c>
-      <c r="C81" s="19">
+      <c r="C81" s="12">
         <v>2.2330000000000001</v>
       </c>
-      <c r="D81" s="19">
+      <c r="D81" s="12">
         <v>0.21199999999999999</v>
       </c>
-      <c r="E81" s="19">
+      <c r="E81" s="12">
         <v>1.7789999999999999</v>
       </c>
-      <c r="F81" s="20">
+      <c r="F81" s="13">
         <v>2.6880000000000002</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="26">
+      <c r="A82" s="28">
         <v>2</v>
       </c>
-      <c r="B82" s="21">
+      <c r="B82" s="14">
         <v>1</v>
       </c>
-      <c r="C82" s="22">
+      <c r="C82" s="15">
         <v>1.667</v>
       </c>
-      <c r="D82" s="22">
+      <c r="D82" s="15">
         <v>0.17399999999999999</v>
       </c>
-      <c r="E82" s="22">
+      <c r="E82" s="15">
         <v>1.294</v>
       </c>
-      <c r="F82" s="23">
+      <c r="F82" s="16">
         <v>2.0390000000000001</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="27"/>
+      <c r="A83" s="29"/>
       <c r="B83" s="7">
         <v>2</v>
       </c>
@@ -15059,10 +16277,10 @@
       <c r="A86" t="s">
         <v>7</v>
       </c>
-      <c r="B86" s="29">
+      <c r="B86" s="19">
         <v>1.7</v>
       </c>
-      <c r="C86" s="28">
+      <c r="C86" s="18">
         <v>2.2330000000000001</v>
       </c>
     </row>
@@ -15070,10 +16288,10 @@
       <c r="A87" t="s">
         <v>8</v>
       </c>
-      <c r="B87" s="29">
+      <c r="B87" s="19">
         <v>1.667</v>
       </c>
-      <c r="C87" s="28">
+      <c r="C87" s="18">
         <v>2.367</v>
       </c>
     </row>
@@ -15102,13 +16320,13 @@
       <c r="B105">
         <v>1</v>
       </c>
-      <c r="C105" s="29">
+      <c r="C105" s="19">
         <v>1</v>
       </c>
-      <c r="D105" s="28">
+      <c r="D105" s="18">
         <v>1.7330000000000001</v>
       </c>
-      <c r="E105" s="28">
+      <c r="E105" s="18">
         <v>0.28399999999999997</v>
       </c>
     </row>
@@ -15119,13 +16337,13 @@
       <c r="B106">
         <v>1</v>
       </c>
-      <c r="C106" s="29">
+      <c r="C106" s="19">
         <v>2</v>
       </c>
-      <c r="D106" s="28">
+      <c r="D106" s="18">
         <v>1.667</v>
       </c>
-      <c r="E106" s="28">
+      <c r="E106" s="18">
         <v>0.27</v>
       </c>
     </row>
@@ -15136,13 +16354,13 @@
       <c r="B107">
         <v>2</v>
       </c>
-      <c r="C107" s="29">
+      <c r="C107" s="19">
         <v>1</v>
       </c>
-      <c r="D107" s="28">
+      <c r="D107" s="18">
         <v>1.667</v>
       </c>
-      <c r="E107" s="28">
+      <c r="E107" s="18">
         <v>0.28699999999999998</v>
       </c>
     </row>
@@ -15153,13 +16371,13 @@
       <c r="B108">
         <v>2</v>
       </c>
-      <c r="C108" s="29">
+      <c r="C108" s="19">
         <v>2</v>
       </c>
-      <c r="D108" s="28">
+      <c r="D108" s="18">
         <v>1.667</v>
       </c>
-      <c r="E108" s="28">
+      <c r="E108" s="18">
         <v>0.27</v>
       </c>
     </row>
@@ -15170,13 +16388,13 @@
       <c r="B109">
         <v>1</v>
       </c>
-      <c r="C109" s="29">
+      <c r="C109" s="19">
         <v>1</v>
       </c>
-      <c r="D109" s="28">
+      <c r="D109" s="18">
         <v>2.133</v>
       </c>
-      <c r="E109" s="28">
+      <c r="E109" s="18">
         <v>0.29099999999999998</v>
       </c>
     </row>
@@ -15187,13 +16405,13 @@
       <c r="B110">
         <v>1</v>
       </c>
-      <c r="C110" s="29">
+      <c r="C110" s="19">
         <v>2</v>
       </c>
-      <c r="D110" s="28">
+      <c r="D110" s="18">
         <v>2.6</v>
       </c>
-      <c r="E110" s="28">
+      <c r="E110" s="18">
         <v>0.34899999999999998</v>
       </c>
     </row>
@@ -15204,13 +16422,13 @@
       <c r="B111">
         <v>2</v>
       </c>
-      <c r="C111" s="29">
+      <c r="C111" s="19">
         <v>1</v>
       </c>
-      <c r="D111" s="28">
+      <c r="D111" s="18">
         <v>2.3330000000000002</v>
       </c>
-      <c r="E111" s="28">
+      <c r="E111" s="18">
         <v>0.27</v>
       </c>
     </row>
@@ -15221,13 +16439,13 @@
       <c r="B112">
         <v>2</v>
       </c>
-      <c r="C112" s="29">
+      <c r="C112" s="19">
         <v>2</v>
       </c>
-      <c r="D112" s="28">
+      <c r="D112" s="18">
         <v>2.133</v>
       </c>
-      <c r="E112" s="28">
+      <c r="E112" s="18">
         <v>0.23599999999999999</v>
       </c>
     </row>
@@ -15255,7 +16473,7 @@
       <c r="B114">
         <v>1.7330000000000001</v>
       </c>
-      <c r="C114" s="29">
+      <c r="C114" s="19">
         <v>1.667</v>
       </c>
       <c r="E114" t="s">
@@ -15275,7 +16493,7 @@
       <c r="B115">
         <v>1.667</v>
       </c>
-      <c r="C115" s="29">
+      <c r="C115" s="19">
         <v>1.667</v>
       </c>
       <c r="E115" t="s">
@@ -15360,13 +16578,13 @@
       <c r="B135">
         <v>1.7330000000000001</v>
       </c>
-      <c r="C135" s="29">
+      <c r="C135" s="19">
         <v>1.667</v>
       </c>
-      <c r="D135" s="28">
+      <c r="D135" s="18">
         <v>0.28399999999999997</v>
       </c>
-      <c r="E135" s="28">
+      <c r="E135" s="18">
         <v>0.27</v>
       </c>
     </row>
@@ -15377,13 +16595,13 @@
       <c r="B136">
         <v>2.133</v>
       </c>
-      <c r="C136" s="29">
+      <c r="C136" s="19">
         <v>2.6</v>
       </c>
-      <c r="D136" s="28">
+      <c r="D136" s="18">
         <v>0.29099999999999998</v>
       </c>
-      <c r="E136" s="28">
+      <c r="E136" s="18">
         <v>0.34899999999999998</v>
       </c>
     </row>
@@ -15399,16 +16617,16 @@
       <c r="A138" t="s">
         <v>10</v>
       </c>
-      <c r="B138" s="28">
+      <c r="B138" s="18">
         <v>1.667</v>
       </c>
-      <c r="C138" s="28">
+      <c r="C138" s="18">
         <v>1.667</v>
       </c>
-      <c r="D138" s="28">
+      <c r="D138" s="18">
         <v>0.28699999999999998</v>
       </c>
-      <c r="E138" s="28">
+      <c r="E138" s="18">
         <v>0.27</v>
       </c>
     </row>
@@ -15416,46 +16634,46 @@
       <c r="A139" t="s">
         <v>11</v>
       </c>
-      <c r="B139" s="28">
+      <c r="B139" s="18">
         <v>2.3330000000000002</v>
       </c>
-      <c r="C139" s="28">
+      <c r="C139" s="18">
         <v>2.133</v>
       </c>
-      <c r="D139" s="28">
+      <c r="D139" s="18">
         <v>0.27</v>
       </c>
-      <c r="E139" s="28">
+      <c r="E139" s="18">
         <v>0.23599999999999999</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A143" s="10" t="s">
+      <c r="A143" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B143" s="10" t="s">
+      <c r="B143" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="C143" s="10" t="s">
+      <c r="C143" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="D143" s="12" t="s">
+      <c r="D143" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="E143" s="14" t="s">
+      <c r="E143" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="F143" s="17" t="s">
+      <c r="F143" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="G143" s="16"/>
+      <c r="G143" s="24"/>
     </row>
     <row r="144" spans="1:7" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A144" s="11"/>
-      <c r="B144" s="11"/>
-      <c r="C144" s="11"/>
-      <c r="D144" s="13"/>
-      <c r="E144" s="15"/>
+      <c r="A144" s="31"/>
+      <c r="B144" s="31"/>
+      <c r="C144" s="31"/>
+      <c r="D144" s="33"/>
+      <c r="E144" s="22"/>
       <c r="F144" s="1" t="s">
         <v>4</v>
       </c>
@@ -15464,10 +16682,10 @@
       </c>
     </row>
     <row r="145" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A145" s="24">
+      <c r="A145" s="25">
         <v>1</v>
       </c>
-      <c r="B145" s="24">
+      <c r="B145" s="25">
         <v>1</v>
       </c>
       <c r="C145" s="3">
@@ -15487,130 +16705,130 @@
       </c>
     </row>
     <row r="146" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A146" s="30"/>
-      <c r="B146" s="25"/>
-      <c r="C146" s="18">
+      <c r="A146" s="26"/>
+      <c r="B146" s="27"/>
+      <c r="C146" s="11">
         <v>2</v>
       </c>
-      <c r="D146" s="19">
+      <c r="D146" s="12">
         <v>2.133</v>
       </c>
-      <c r="E146" s="19">
+      <c r="E146" s="12">
         <v>0.29099999999999998</v>
       </c>
-      <c r="F146" s="19">
+      <c r="F146" s="12">
         <v>1.51</v>
       </c>
-      <c r="G146" s="20">
+      <c r="G146" s="13">
         <v>2.7570000000000001</v>
       </c>
     </row>
     <row r="147" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A147" s="30"/>
-      <c r="B147" s="26">
+      <c r="A147" s="26"/>
+      <c r="B147" s="28">
         <v>2</v>
       </c>
-      <c r="C147" s="21">
+      <c r="C147" s="14">
         <v>1</v>
       </c>
-      <c r="D147" s="22">
+      <c r="D147" s="15">
         <v>1.667</v>
       </c>
-      <c r="E147" s="22">
+      <c r="E147" s="15">
         <v>0.27</v>
       </c>
-      <c r="F147" s="22">
+      <c r="F147" s="15">
         <v>1.087</v>
       </c>
-      <c r="G147" s="23">
+      <c r="G147" s="16">
         <v>2.246</v>
       </c>
     </row>
     <row r="148" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A148" s="25"/>
-      <c r="B148" s="25"/>
-      <c r="C148" s="18">
+      <c r="A148" s="27"/>
+      <c r="B148" s="27"/>
+      <c r="C148" s="11">
         <v>2</v>
       </c>
-      <c r="D148" s="19">
+      <c r="D148" s="12">
         <v>2.6</v>
       </c>
-      <c r="E148" s="19">
+      <c r="E148" s="12">
         <v>0.34899999999999998</v>
       </c>
-      <c r="F148" s="19">
+      <c r="F148" s="12">
         <v>1.851</v>
       </c>
-      <c r="G148" s="20">
+      <c r="G148" s="13">
         <v>3.3490000000000002</v>
       </c>
     </row>
     <row r="149" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A149" s="26">
+      <c r="A149" s="28">
         <v>2</v>
       </c>
-      <c r="B149" s="26">
+      <c r="B149" s="28">
         <v>1</v>
       </c>
-      <c r="C149" s="21">
+      <c r="C149" s="14">
         <v>1</v>
       </c>
-      <c r="D149" s="22">
+      <c r="D149" s="15">
         <v>1.667</v>
       </c>
-      <c r="E149" s="22">
+      <c r="E149" s="15">
         <v>0.28699999999999998</v>
       </c>
-      <c r="F149" s="22">
+      <c r="F149" s="15">
         <v>1.05</v>
       </c>
-      <c r="G149" s="23">
+      <c r="G149" s="16">
         <v>2.2829999999999999</v>
       </c>
     </row>
     <row r="150" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A150" s="30"/>
-      <c r="B150" s="25"/>
-      <c r="C150" s="18">
+      <c r="A150" s="26"/>
+      <c r="B150" s="27"/>
+      <c r="C150" s="11">
         <v>2</v>
       </c>
-      <c r="D150" s="19">
+      <c r="D150" s="12">
         <v>2.3330000000000002</v>
       </c>
-      <c r="E150" s="19">
+      <c r="E150" s="12">
         <v>0.27</v>
       </c>
-      <c r="F150" s="19">
+      <c r="F150" s="12">
         <v>1.754</v>
       </c>
-      <c r="G150" s="20">
+      <c r="G150" s="13">
         <v>2.9129999999999998</v>
       </c>
     </row>
     <row r="151" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A151" s="30"/>
-      <c r="B151" s="26">
+      <c r="A151" s="26"/>
+      <c r="B151" s="28">
         <v>2</v>
       </c>
-      <c r="C151" s="21">
+      <c r="C151" s="14">
         <v>1</v>
       </c>
-      <c r="D151" s="22">
+      <c r="D151" s="15">
         <v>1.667</v>
       </c>
-      <c r="E151" s="22">
+      <c r="E151" s="15">
         <v>0.27</v>
       </c>
-      <c r="F151" s="22">
+      <c r="F151" s="15">
         <v>1.087</v>
       </c>
-      <c r="G151" s="23">
+      <c r="G151" s="16">
         <v>2.246</v>
       </c>
     </row>
     <row r="152" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A152" s="27"/>
-      <c r="B152" s="27"/>
+      <c r="A152" s="29"/>
+      <c r="B152" s="29"/>
       <c r="C152" s="7">
         <v>2</v>
       </c>
@@ -15651,13 +16869,13 @@
       <c r="B155">
         <v>1</v>
       </c>
-      <c r="C155" s="29">
+      <c r="C155" s="19">
         <v>1</v>
       </c>
-      <c r="D155" s="28">
+      <c r="D155" s="18">
         <v>1.7330000000000001</v>
       </c>
-      <c r="E155" s="28">
+      <c r="E155" s="18">
         <v>0.28399999999999997</v>
       </c>
     </row>
@@ -15668,13 +16886,13 @@
       <c r="B156">
         <v>1</v>
       </c>
-      <c r="C156" s="29">
+      <c r="C156" s="19">
         <v>2</v>
       </c>
-      <c r="D156" s="28">
+      <c r="D156" s="18">
         <v>2.133</v>
       </c>
-      <c r="E156" s="28">
+      <c r="E156" s="18">
         <v>0.29099999999999998</v>
       </c>
     </row>
@@ -15685,13 +16903,13 @@
       <c r="B157">
         <v>2</v>
       </c>
-      <c r="C157" s="29">
+      <c r="C157" s="19">
         <v>1</v>
       </c>
-      <c r="D157" s="28">
+      <c r="D157" s="18">
         <v>1.667</v>
       </c>
-      <c r="E157" s="28">
+      <c r="E157" s="18">
         <v>0.28699999999999998</v>
       </c>
     </row>
@@ -15702,13 +16920,13 @@
       <c r="B158">
         <v>2</v>
       </c>
-      <c r="C158" s="29">
+      <c r="C158" s="19">
         <v>2</v>
       </c>
-      <c r="D158" s="28">
+      <c r="D158" s="18">
         <v>2.3330000000000002</v>
       </c>
-      <c r="E158" s="28">
+      <c r="E158" s="18">
         <v>0.27</v>
       </c>
     </row>
@@ -15719,13 +16937,13 @@
       <c r="B159">
         <v>1</v>
       </c>
-      <c r="C159" s="29">
+      <c r="C159" s="19">
         <v>1</v>
       </c>
-      <c r="D159" s="28">
+      <c r="D159" s="18">
         <v>1.667</v>
       </c>
-      <c r="E159" s="28">
+      <c r="E159" s="18">
         <v>0.27</v>
       </c>
     </row>
@@ -15736,51 +16954,51 @@
       <c r="B160">
         <v>1</v>
       </c>
-      <c r="C160" s="29">
+      <c r="C160" s="19">
         <v>2</v>
       </c>
-      <c r="D160" s="28">
+      <c r="D160" s="18">
         <v>2.6</v>
       </c>
-      <c r="E160" s="28">
+      <c r="E160" s="18">
         <v>0.34899999999999998</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>2</v>
       </c>
       <c r="B161">
         <v>2</v>
       </c>
-      <c r="C161" s="29">
+      <c r="C161" s="19">
         <v>1</v>
       </c>
-      <c r="D161" s="28">
+      <c r="D161" s="18">
         <v>1.667</v>
       </c>
-      <c r="E161" s="28">
+      <c r="E161" s="18">
         <v>0.27</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>2</v>
       </c>
       <c r="B162">
         <v>2</v>
       </c>
-      <c r="C162" s="29">
+      <c r="C162" s="19">
         <v>2</v>
       </c>
-      <c r="D162" s="28">
+      <c r="D162" s="18">
         <v>2.133</v>
       </c>
-      <c r="E162" s="28">
+      <c r="E162" s="18">
         <v>0.23599999999999999</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B163" t="s">
         <v>0</v>
       </c>
@@ -15791,41 +17009,41 @@
         <v>16</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>10</v>
       </c>
       <c r="B164">
         <v>1.7330000000000001</v>
       </c>
-      <c r="C164" s="29">
+      <c r="C164" s="19">
         <v>1.667</v>
       </c>
-      <c r="D164" s="28">
+      <c r="D164" s="18">
         <v>0.28399999999999997</v>
       </c>
-      <c r="E164" s="28">
+      <c r="E164" s="18">
         <v>0.28699999999999998</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>11</v>
       </c>
       <c r="B165">
         <v>2.133</v>
       </c>
-      <c r="C165" s="29">
+      <c r="C165" s="19">
         <v>2.3330000000000002</v>
       </c>
-      <c r="D165" s="28">
+      <c r="D165" s="18">
         <v>0.29099999999999998</v>
       </c>
-      <c r="E165" s="28">
+      <c r="E165" s="18">
         <v>0.27</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B166" t="s">
         <v>0</v>
       </c>
@@ -15836,70 +17054,193 @@
         <v>16</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>10</v>
       </c>
       <c r="B167">
         <v>1.667</v>
       </c>
-      <c r="C167" s="29">
+      <c r="C167" s="19">
         <v>1.667</v>
       </c>
-      <c r="D167" s="28">
+      <c r="D167" s="18">
         <v>0.27</v>
       </c>
-      <c r="E167" s="28">
+      <c r="E167" s="18">
         <v>0.27</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>11</v>
       </c>
       <c r="B168">
         <v>2.6</v>
       </c>
-      <c r="C168" s="29">
+      <c r="C168" s="19">
         <v>2.133</v>
       </c>
-      <c r="D168" s="28">
+      <c r="D168" s="18">
         <v>0.34899999999999998</v>
       </c>
-      <c r="E168" s="28">
+      <c r="E168" s="18">
         <v>0.23599999999999999</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A171" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="B171" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C171" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="D171" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="E171" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="F171" s="24"/>
+    </row>
+    <row r="172" spans="1:6" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A172" s="31"/>
+      <c r="B172" s="31"/>
+      <c r="C172" s="33"/>
+      <c r="D172" s="22"/>
+      <c r="E172" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F172" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A173" s="25">
+        <v>1</v>
+      </c>
+      <c r="B173" s="3">
+        <v>1</v>
+      </c>
+      <c r="C173" s="4">
+        <v>6.3330000000000002</v>
+      </c>
+      <c r="D173" s="4">
+        <v>0.63700000000000001</v>
+      </c>
+      <c r="E173" s="5">
+        <v>4.9660000000000002</v>
+      </c>
+      <c r="F173" s="6">
+        <v>7.7009999999999996</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A174" s="27"/>
+      <c r="B174" s="11">
+        <v>2</v>
+      </c>
+      <c r="C174" s="12">
+        <v>7.867</v>
+      </c>
+      <c r="D174" s="12">
+        <v>0.92</v>
+      </c>
+      <c r="E174" s="12">
+        <v>5.8940000000000001</v>
+      </c>
+      <c r="F174" s="13">
+        <v>9.84</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A175" s="28">
+        <v>2</v>
+      </c>
+      <c r="B175" s="14">
+        <v>1</v>
+      </c>
+      <c r="C175" s="15">
+        <v>6.7329999999999997</v>
+      </c>
+      <c r="D175" s="15">
+        <v>0.57299999999999995</v>
+      </c>
+      <c r="E175" s="15">
+        <v>5.5049999999999999</v>
+      </c>
+      <c r="F175" s="16">
+        <v>7.9619999999999997</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A176" s="29"/>
+      <c r="B176" s="17">
+        <v>2</v>
+      </c>
+      <c r="C176" s="8">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="D176" s="8">
+        <v>0.52700000000000002</v>
+      </c>
+      <c r="E176" s="8">
+        <v>8.0690000000000008</v>
+      </c>
+      <c r="F176" s="9">
+        <v>10.331</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B178" t="s">
+        <v>17</v>
+      </c>
+      <c r="C178" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>10</v>
+      </c>
+      <c r="B179" s="20">
+        <v>6.3330000000000002</v>
+      </c>
+      <c r="C179" s="18">
+        <v>6.7329999999999997</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>11</v>
+      </c>
+      <c r="B180" s="20">
+        <v>7.867</v>
+      </c>
+      <c r="C180" s="18">
+        <v>9.1999999999999993</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="45">
-    <mergeCell ref="E143:E144"/>
-    <mergeCell ref="F143:G143"/>
-    <mergeCell ref="A145:A148"/>
-    <mergeCell ref="B145:B146"/>
-    <mergeCell ref="B147:B148"/>
-    <mergeCell ref="A149:A152"/>
-    <mergeCell ref="B149:B150"/>
-    <mergeCell ref="B151:B152"/>
-    <mergeCell ref="A80:A81"/>
-    <mergeCell ref="A82:A83"/>
-    <mergeCell ref="A143:A144"/>
-    <mergeCell ref="B143:B144"/>
-    <mergeCell ref="C143:C144"/>
-    <mergeCell ref="D143:D144"/>
-    <mergeCell ref="E64:F64"/>
-    <mergeCell ref="A66:A67"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="A78:A79"/>
-    <mergeCell ref="B78:B79"/>
-    <mergeCell ref="C78:C79"/>
-    <mergeCell ref="D78:D79"/>
-    <mergeCell ref="E78:F78"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="B64:B65"/>
-    <mergeCell ref="C64:C65"/>
-    <mergeCell ref="D64:D65"/>
+  <mergeCells count="52">
+    <mergeCell ref="A173:A174"/>
+    <mergeCell ref="A175:A176"/>
+    <mergeCell ref="A171:A172"/>
+    <mergeCell ref="B171:B172"/>
+    <mergeCell ref="C171:C172"/>
+    <mergeCell ref="D171:D172"/>
+    <mergeCell ref="E171:F171"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:E20"/>
     <mergeCell ref="A33:A34"/>
     <mergeCell ref="B33:B34"/>
     <mergeCell ref="C33:C34"/>
@@ -15909,14 +17250,34 @@
     <mergeCell ref="C47:C48"/>
     <mergeCell ref="D47:D48"/>
     <mergeCell ref="E47:F47"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="C64:C65"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="B78:B79"/>
+    <mergeCell ref="C78:C79"/>
+    <mergeCell ref="D78:D79"/>
+    <mergeCell ref="E78:F78"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="A149:A152"/>
+    <mergeCell ref="B149:B150"/>
+    <mergeCell ref="B151:B152"/>
+    <mergeCell ref="A80:A81"/>
+    <mergeCell ref="A82:A83"/>
+    <mergeCell ref="A143:A144"/>
+    <mergeCell ref="B143:B144"/>
+    <mergeCell ref="E143:E144"/>
+    <mergeCell ref="F143:G143"/>
+    <mergeCell ref="A145:A148"/>
+    <mergeCell ref="B145:B146"/>
+    <mergeCell ref="B147:B148"/>
+    <mergeCell ref="C143:C144"/>
+    <mergeCell ref="D143:D144"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
